--- a/HOANGNINHVU_13505360_ASSN.xlsx
+++ b/HOANGNINHVU_13505360_ASSN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bns\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cykablyat/Desktop/HOANGNINHVU_13505360_Assn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB76383-B8E9-4817-9B30-879F3AECE7A8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2381CF01-8B00-D54F-A46E-5C078C8C5FF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="1155" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{9D12909E-E7E0-4062-B779-47F22318C0B2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{9D12909E-E7E0-4062-B779-47F22318C0B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Task 1" sheetId="2" r:id="rId1"/>
@@ -125,7 +125,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -285,7 +285,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -604,7 +603,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -764,7 +763,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1088,7 +1086,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1650,7 +1648,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2136,7 +2134,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2148,6 +2146,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time Complexity</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2269,7 +2292,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2413,6 +2435,36 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t> Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> taken to compute in milliseconds</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2563,7 +2615,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7119,17 +7171,17 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7143,17 +7195,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>15000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>20000</v>
       </c>
@@ -7164,7 +7216,7 @@
         <v>6.0827750004827896</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>30000</v>
       </c>
@@ -7175,7 +7227,7 @@
         <v>5.5887890001758898</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>40000</v>
       </c>
@@ -7186,7 +7238,7 @@
         <v>6.4912379998713696</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>50000</v>
       </c>
@@ -7197,7 +7249,7 @@
         <v>6.0538729997351703</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>60000</v>
       </c>
@@ -7218,18 +7270,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721224BB-15CC-474F-ADD2-5B193634F71A}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7240,7 +7292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10000</v>
       </c>
@@ -7251,7 +7303,7 @@
         <v>335.50201399996803</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>15000</v>
       </c>
@@ -7262,7 +7314,7 @@
         <v>764.47977900132503</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>20000</v>
       </c>
@@ -7273,7 +7325,7 @@
         <v>1388.34452199935</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>30000</v>
       </c>
@@ -7284,7 +7336,7 @@
         <v>3199.9701920002699</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>40000</v>
       </c>
@@ -7295,7 +7347,7 @@
         <v>5530.5045050010003</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>50000</v>
       </c>
@@ -7306,7 +7358,7 @@
         <v>9196.5109989997</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>60000</v>
       </c>
@@ -7327,21 +7379,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{132FEEEE-083A-4638-81CB-2CAA0A4372B3}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7361,7 +7413,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10000</v>
       </c>
@@ -7372,7 +7424,7 @@
         <v>390.11410093307398</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>15000</v>
       </c>
@@ -7383,7 +7435,7 @@
         <v>854.14100003242402</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>20000</v>
       </c>
@@ -7400,7 +7452,7 @@
         <v>1576.0621001720399</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>30000</v>
       </c>
@@ -7417,7 +7469,7 @@
         <v>3706.1840000152501</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>40000</v>
       </c>
@@ -7434,7 +7486,7 @@
         <v>6754.2018988132404</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>50000</v>
       </c>
@@ -7451,7 +7503,7 @@
         <v>11466.319800138401</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>60000</v>
       </c>
@@ -7468,7 +7520,7 @@
         <v>16142.657600164401</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -7488,7 +7540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10000</v>
       </c>
@@ -7499,7 +7551,7 @@
         <v>335.50201399996803</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>15000</v>
       </c>
@@ -7510,7 +7562,7 @@
         <v>764.47977900132503</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>20000</v>
       </c>
@@ -7527,7 +7579,7 @@
         <v>1388.34452199935</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>30000</v>
       </c>
@@ -7544,7 +7596,7 @@
         <v>3199.9701920002699</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>40000</v>
       </c>
@@ -7561,7 +7613,7 @@
         <v>5530.5045050010003</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>50000</v>
       </c>
@@ -7578,7 +7630,7 @@
         <v>9196.5109989997</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>60000</v>
       </c>
